--- a/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT_Excel .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT_Excel .xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,7 +366,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ICD_Primärkode</t>
+          <t>ICD_primaerkode</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -398,7 +398,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Relation  G70 - 586  ist im BfArM nicht vorhanden</t>
+          <t xml:space="preserve">Kodierung nicht eindeutig. Relation G70 - 586 ist im BfArM nicht vorhanden. </t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Relation  G70 - 589  ist im BfArM nicht vorhanden</t>
+          <t xml:space="preserve">Kodierung nicht eindeutig. Relation G70 - 589 ist im BfArM nicht vorhanden. </t>
         </is>
       </c>
     </row>
@@ -442,7 +442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E84.80 - 588  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E84.80 - 588 ist im BfArM nicht vorhanden.  </t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E75.2 - 325  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 325 ist im BfArM nicht vorhanden.  </t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E75.2 - 320  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 320 ist im BfArM nicht vorhanden.  </t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlendes ICD10 Code  </t>
+          <t xml:space="preserve">Fehlendes ICD10 Code.  </t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Kodierung  587  ist im BfArM-Mapping nicht enthalten Fehlendes ICD10 Code  </t>
+          <t xml:space="preserve">Orpha Kodierung 587 ist im BfArM-Mapping nicht enthalten.  Fehlendes ICD10 Code.  </t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlendes Orpha_Kode  </t>
+          <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlendes Orpha_Kode  </t>
+          <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlendes ICD10 Code  </t>
+          <t xml:space="preserve">Fehlendes ICD10 Code.  </t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E66.89 - 320  ist im BfArM nicht vorhanden </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E66.89 - 320 ist im BfArM nicht vorhanden.  </t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E66.89 Fehlendes Orpha_Kode  </t>
+          <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig E75.2 Fehlendes Orpha_Kode  </t>
+          <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>
@@ -664,24 +664,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relation  E85.0 - 586  ist im BfArM nicht vorhanden </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_20085770</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>J09</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD10-Kodierung nicht eindeutig J09 </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E85.0 - 586 ist im BfArM nicht vorhanden.  </t>
         </is>
       </c>
     </row>
@@ -726,12 +709,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>icdRd_no</t>
+          <t>K2_icdRd_no</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>icdRd_no_ext</t>
+          <t>K3_rd_no</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -761,13 +744,13 @@
         <v>88.23999999999999</v>
       </c>
       <c r="E2">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="F2">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H2">
         <v>395</v>
